--- a/Practise Exercise  - 2.xlsx
+++ b/Practise Exercise  - 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\9june\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\2. June\9\practice_exercise_1_5_June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32F33C-BD34-4EFE-936D-E53E4B22C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF06C1-3C20-4801-BC27-58A49744E204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="H37">
-        <f>SUMIF(D3:D26,"washing machine",E3:E26)</f>
+        <f>SUMIF(D3:D25,"washing machine",E3:E25)</f>
         <v>164</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
         <v>37</v>
       </c>
       <c r="H44">
-        <f>COUNTIFS(G2:G25, "Boston",B2:B25, "&gt;3/2/2013")</f>
+        <f>COUNTIFS(G2:G25, "Boston",B2:B25, "&gt;03-02-2013")</f>
         <v>2</v>
       </c>
     </row>
@@ -1475,8 +1475,8 @@
         <v>38</v>
       </c>
       <c r="H45">
-        <f>COUNTIFS(B2:B25, "&gt;3/2/2013",B2:B25,"&lt;6/2/2013")</f>
-        <v>9</v>
+        <f>COUNTIFS(B2:B25, "&gt;=3/2/2013",B2:B25,"&lt;=6/2/2013")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1506,8 +1506,8 @@
         <v>39</v>
       </c>
       <c r="H49">
-        <f>SUMIFS(E2:E25,B2:B25,"&gt;3/2/2013",B2:B25,"&lt;6/2/2013")</f>
-        <v>194</v>
+        <f>SUMIFS(E2:E25,B2:B25,"&gt;=3/2/2013",B2:B25,"&lt;=6/2/2013")</f>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>SUMIFS($E$16:$E$241,$B$16:$B$241,"Shaving",$C$16:$C$241,$A9,$A$16:$A$241,"&gt;10/5/2013",$A$16:$A$241, "&lt;20/05/2013")</f>
+        <f>SUMIFS($E$16:$E$241,$B$16:$B$241,"Shaving",$C$16:$C$241,$A9,$A$16:$A$241,"&gt;=10/5/2013",$A$16:$A$241, "&lt;=20/05/2013")</f>
         <v>31</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F11" si="8">SUMIFS($E$16:$E$241,$B$16:$B$241,"Shaving",$C$16:$C$241,$A10,$A$16:$A$241,"&gt;10/5/2013",$A$16:$A$241, "&lt;20/05/2013")</f>
+        <f t="shared" ref="F10:F11" si="8">SUMIFS($E$16:$E$241,$B$16:$B$241,"Shaving",$C$16:$C$241,$A10,$A$16:$A$241,"&gt;=10/5/2013",$A$16:$A$241, "&lt;=20/05/2013")</f>
         <v>24</v>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
